--- a/biology/Botanique/Roland_Bonaparte/Roland_Bonaparte.xlsx
+++ b/biology/Botanique/Roland_Bonaparte/Roland_Bonaparte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland Napoléon Bonaparte, prince Bonaparte (petit-fils de Lucien Bonaparte), né le 19 mai 1858 à Auteuil[1] et mort dans la même ville le 14 avril 1924, est un géographe et un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Napoléon Bonaparte, prince Bonaparte (petit-fils de Lucien Bonaparte), né le 19 mai 1858 à Auteuil et mort dans la même ville le 14 avril 1924, est un géographe et un botaniste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du prince Pierre-Napoléon Bonaparte et d'Éléonore-Justine Ruffin, Roland Bonaparte est le petit-fils de Lucien Bonaparte[2], prince de Canino, dont il est le dernier descendant mâle. Non dynaste comme ses autres descendants, le prince Roland Bonaparte devint prince de Canino et de Musignano à la mort de son cousin Napoléon-Charles Bonaparte. Le mariage de ses parents n'avait cependant pas été reconnu par Napoléon III[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du prince Pierre-Napoléon Bonaparte et d'Éléonore-Justine Ruffin, Roland Bonaparte est le petit-fils de Lucien Bonaparte, prince de Canino, dont il est le dernier descendant mâle. Non dynaste comme ses autres descendants, le prince Roland Bonaparte devint prince de Canino et de Musignano à la mort de son cousin Napoléon-Charles Bonaparte. Le mariage de ses parents n'avait cependant pas été reconnu par Napoléon III.
 Il épouse le 18 novembre 1880 Marie-Félix Blanc, fille du richissime François Blanc, fondateur du casino de Monte-Carlo et de la Société des bains de mer de Monaco. Marie-Félix Blanc meurt en 1882 en mettant au monde une fille, la princesse Marie Bonaparte, qui épousera en 1907 le prince Georges de Grèce et deviendra femme de lettres et psychanalyste, amie et protectrice de Gustave Le Bon et de Sigmund Freud.
 </t>
         </is>
@@ -545,17 +559,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière militaire
-Bien sorti de l'École spéciale militaire de Saint-Cyr dans la promotion de Novi-Bazar (1877-1879)[4],[2], il sert comme sous-lieutenant dans l'infanterie. Le prince réside à Guyancourt vers 1880 en tant que sous-lieutenant, au 36e régiment d'infanterie, de la batterie de Bouviers[5]. Mais il doit renoncer à la carrière militaire[2] après l'adoption de la loi du 4 juin 1886 interdisant aux membres des familles ayant régné sur la France de servir dans l'armée.
-À cette époque, sa famille réside à Guyancourt dans le hameau de Bouviers : sa femme Marie-Félix Blanc, sa sœur Jeanne Bonaparte et sa mère Éléonore-Justine Ruflin (veuve du prince Pierre Bonaparte, décédée à Versailles en 1881, et mère de Roland). Selon les registres communaux, de nombreux serviteurs accompagnaient la famille Bonaparte[6].
-Carrière scientifique
-Il se tourne alors vers la géographie, la géologie, la spéléologie et l'ethnologie.
-Grand voyageur, il essaie d'utiliser la photographie pour réaliser un inventaire anthropologique des populations humaines. Projet qu'il abandonne par la suite pour se consacrer à la botanique[2] et à la constitution du plus grand herbier privé du monde. Il recueille lui-même de nombreux échantillons, mais fait aussi travailler de nombreux collecteurs à travers le monde.
-En 1895, il fait partie des 121 membres fondateurs, en tant que membre donateur, de la Société de spéléologie[7], association dont il est élu président pour l'année 1896 lors de l'assemblée générale du 26 décembre 1895[8].
-Ce prince fut également le fondateur et Président d'honneur de la Société des peintres de Montagne (Paris) en 1898. Il fut membre de nombreuses autres sociétés savantes (Académie de Versailles, des Yvelines et de l'Île-de-France, Académie des sciences, belles-lettres et arts de Lyon, Comité des travaux historiques et scientifiques, Société botanique de France, Société d'histoire littéraire de la France, Société de géographie, Société des américanistes, Société des amis des monuments parisiens, Société des lettres, sciences et arts « La Haute-Auvergne »)[9]. Il est président de la Société botanique de France en 1919.
+          <t>Carrière militaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien sorti de l'École spéciale militaire de Saint-Cyr dans la promotion de Novi-Bazar (1877-1879) il sert comme sous-lieutenant dans l'infanterie. Le prince réside à Guyancourt vers 1880 en tant que sous-lieutenant, au 36e régiment d'infanterie, de la batterie de Bouviers. Mais il doit renoncer à la carrière militaire après l'adoption de la loi du 4 juin 1886 interdisant aux membres des familles ayant régné sur la France de servir dans l'armée.
+À cette époque, sa famille réside à Guyancourt dans le hameau de Bouviers : sa femme Marie-Félix Blanc, sa sœur Jeanne Bonaparte et sa mère Éléonore-Justine Ruflin (veuve du prince Pierre Bonaparte, décédée à Versailles en 1881, et mère de Roland). Selon les registres communaux, de nombreux serviteurs accompagnaient la famille Bonaparte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roland_Bonaparte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Bonaparte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se tourne alors vers la géographie, la géologie, la spéléologie et l'ethnologie.
+Grand voyageur, il essaie d'utiliser la photographie pour réaliser un inventaire anthropologique des populations humaines. Projet qu'il abandonne par la suite pour se consacrer à la botanique et à la constitution du plus grand herbier privé du monde. Il recueille lui-même de nombreux échantillons, mais fait aussi travailler de nombreux collecteurs à travers le monde.
+En 1895, il fait partie des 121 membres fondateurs, en tant que membre donateur, de la Société de spéléologie, association dont il est élu président pour l'année 1896 lors de l'assemblée générale du 26 décembre 1895.
+Ce prince fut également le fondateur et Président d'honneur de la Société des peintres de Montagne (Paris) en 1898. Il fut membre de nombreuses autres sociétés savantes (Académie de Versailles, des Yvelines et de l'Île-de-France, Académie des sciences, belles-lettres et arts de Lyon, Comité des travaux historiques et scientifiques, Société botanique de France, Société d'histoire littéraire de la France, Société de géographie, Société des américanistes, Société des amis des monuments parisiens, Société des lettres, sciences et arts « La Haute-Auvergne »). Il est président de la Société botanique de France en 1919.
 Grâce à la fortune considérable héritée de sa femme, il installe l'herbier dans l'hôtel particulier qu'il fait construire en 1896 à Paris au no 10, avenue d'Iéna (ensuite siège de la Société de géographie jusqu'en 1943, puis siège d'Ubifrance, agence française pour le développement international des entreprises, l'hôtel est transformé en palace de la chaîne d'hôtels Shangri-La sous le nom de Shangri-La Hotel Paris, fin 2010). Il y renferme également une riche collection de souvenirs napoléoniens, et une bibliothèque de 150 000 volumes abritée dans quatre salles ornées de riches boiseries.
 « Le Prince, écrit André de Fouquières, était de belle stature, avec des épaules massives, un visage large, aux traits quelque peu empâtés, la moustache et les sourcils épais et noirs : un physique apparenté, en quelque sorte, aux cariatides de la cheminée de pierre blanche de sa salle à manger et qui figuraient deux grenadiers de la Garde, d'après Raffet. »
-Reconnu par ses pairs, Roland Bonaparte est président de la Société de géographie de 1910 à sa mort et, en 1907, membre de l'Académie des sciences, dont il devient président en 1919. Il est président de la Société astronomique de France de 1921 à 1923[10] (son vice-président est Émile Belot[11]). Il fut également un ardent propagandiste de l'aviation naissante : en octobre 1905 il préside la conférence constitutive de la Fédération aéronautique internationale. Il était également membre de l'Académie roumaine.
+Reconnu par ses pairs, Roland Bonaparte est président de la Société de géographie de 1910 à sa mort et, en 1907, membre de l'Académie des sciences, dont il devient président en 1919. Il est président de la Société astronomique de France de 1921 à 1923 (son vice-président est Émile Belot). Il fut également un ardent propagandiste de l'aviation naissante : en octobre 1905 il préside la conférence constitutive de la Fédération aéronautique internationale. Il était également membre de l'Académie roumaine.
 En 1910, des pétitions annonçant la révolution monégasque réclament la fin du monopole de la famille Blanc (Roland et son beau-frère Camille Blanc) à la tête de la Société des Bains de Mer.
 L'herbier de Roland Bonaparte rassemble plus de 2 500 000 échantillons concernant près de 100 000 espèces. Proposé après sa mort au Muséum national d'histoire naturelle de Paris, qui le refuse faute de place, à l'exception des Ptéridophytes, groupe dans lequel Bonaparte s'était illustré, il est transporté à Lyon à l'initiative d'Édouard Herriot. Cet herbier, augmenté d'autres collections, est aujourd'hui hébergé par l'université Claude Bernard sur le Campus de la Doua à Villeurbanne et constitue le deuxième herbier de France et le septième dans le monde.
 Roland Bonaparte laisse aussi à sa mort un fonds important qui enrichira la bibliothèque de la Société de géographie comme celle de la ville d'Ajaccio. Il laisse le souvenir d'un homme de culture et d'un mécène de la science. N'ayant pas laissé de postérité mâle, Roland Bonaparte fut le dernier représentant de la branche de Lucien.
@@ -565,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Roland_Bonaparte</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Roland_Bonaparte</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fonds Roland Bonaparte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Bonaparte constitue sa bibliothèque d'abord dans sa résidence du Cours-la-Reine, puis la transfère dans son hôtel de l’avenue d'Iéna en 1896.
 La salle de lecture, sous la responsabilité d’un bibliothécaire, est ouverte à un public de savants et d’universitaires. Les collections, dont le noyau est formé par la bibliothèque de son père  Pierre-Napoléon, s’accroissent rapidement grâce à des dons (bibliothèque de Louis Vivien de Saint-Martin en 1894) mais surtout par achat en vente publique (bibliothèque de San Donato en 1880, collections de Charles Schefer en 1899) et chez des libraires français et étrangers (Frederick Müller à Amsterdam).
@@ -599,33 +655,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Roland_Bonaparte</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Roland_Bonaparte</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les Habitants de Suriname, notes recueillies à l'Exposition coloniale d'Amsterdam en 1883, Paris, 1884 [2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Habitants de Suriname, notes recueillies à l'Exposition coloniale d'Amsterdam en 1883, Paris, 1884 
 Les Derniers voyages des Néerlandais à la Nouvelle-Guinée, Paris, 1885
 Le Premier établissement des Néerlandais à Maurice, Paris, 1890
 Une excursion en Corse, Paris, 1891
